--- a/docs/1엔티티타입 정의서.xlsx
+++ b/docs/1엔티티타입 정의서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umbum/OneDrive/UoS/PDF_강의노트-UoS/4-1/데이터베이스설계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\convenience-store-POS-system\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AED296-9B08-4AB3-9336-9CC6C44EE8C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="913" firstSheet="1" activeTab="8" xr2:uid="{BD70F313-7A65-4E41-8949-22063B6179E5}"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="28800" windowHeight="16440" tabRatio="913" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.주문 반품 관리 - 주문관리" sheetId="5" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'6.자금관리 - 자금관리'!$A$1:$A$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">최종엔티티타입!$A$1:$A$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="208">
   <si>
     <t>전산입력</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -873,13 +872,16 @@
   <si>
     <t>수납번호</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰번호는 Key로 하지 않고 별도의 고객번호를 Key로 한다. 휴대폰번호를 Key로하면 휴대폰번호가 변경되었을 때 복잡한 처리가 발생할 수 있다. 단, 고객 등록 시의 식별에는 휴대폰번호가 필요하다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,15 +1130,15 @@
   <cellStyles count="11">
     <cellStyle name="경고문" xfId="5" builtinId="11"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
-    <cellStyle name="나쁨 2" xfId="9" xr:uid="{2F09A046-16B1-4917-8DEF-838191503AED}"/>
+    <cellStyle name="나쁨 2" xfId="9"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
-    <cellStyle name="보통 2" xfId="8" xr:uid="{22EA2CF7-269E-4E38-88B3-F8FE41157DE2}"/>
+    <cellStyle name="보통 2" xfId="8"/>
     <cellStyle name="설명 텍스트" xfId="10" builtinId="53"/>
     <cellStyle name="셀 확인" xfId="4" builtinId="23"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
-    <cellStyle name="좋음 2" xfId="7" xr:uid="{62E52124-7166-4F39-A8A5-49B63BB12D37}"/>
+    <cellStyle name="좋음 2" xfId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="6" xr:uid="{7B0761FA-8F5A-4B26-8C23-E845F2B7F1C3}"/>
+    <cellStyle name="표준 2" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1447,23 +1449,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D1814C-D9C3-44B6-8F0A-91C90B4A87F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="31.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.640625" customWidth="1"/>
+    <col min="4" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -1486,7 +1488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -1758,7 +1760,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1838,7 +1840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -2038,8 +2040,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" thickBot="1"/>
-    <row r="30" spans="1:6" ht="19" thickTop="1" thickBot="1">
+    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="30" spans="1:6" ht="18.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E30" s="12" t="s">
         <v>90</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" thickTop="1"/>
+    <row r="31" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2056,21 +2058,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F8C325-B065-4306-934A-E4195BD25ADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="5" width="27.33203125" customWidth="1"/>
-    <col min="11" max="11" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="5" width="27.35546875" customWidth="1"/>
+    <col min="11" max="11" width="44.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2090,7 +2092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2110,7 +2112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2150,7 +2152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2170,7 +2172,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2357,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2399,19 +2401,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842E8AEF-DC7B-4057-BA6B-559C2E5ABC27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="13" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
@@ -2570,7 +2572,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -2670,7 +2672,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +2812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -2850,7 +2852,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
@@ -2910,7 +2912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -2930,7 +2932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -2990,7 +2992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
@@ -3030,7 +3032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5" t="s">
         <v>61</v>
       </c>
@@ -3110,7 +3112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
@@ -3137,19 +3139,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11B58BB-1EBE-4F59-9E38-93DF831D1A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="14.1640625" customWidth="1"/>
+    <col min="1" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -3297,7 +3299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -3399,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3433,7 +3435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -3450,7 +3452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3467,7 +3469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3535,7 +3537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3593,24 +3595,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C41F70B-6E97-4CD0-96D4-C4B4BFE2A1C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.640625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.35546875" customWidth="1"/>
+    <col min="6" max="6" width="25.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3693,7 +3695,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3713,7 +3715,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3780,21 +3782,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F673783-D65E-410E-B6CE-E4A263FF6209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="2" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -3860,7 +3862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -3900,7 +3902,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -3960,7 +3962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4020,7 +4022,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -4147,19 +4149,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB890835-6CB0-4243-810A-9DA7E10917A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="20.1640625" customWidth="1"/>
+    <col min="1" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -4179,7 +4181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4199,7 +4201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -4233,7 +4235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4250,7 +4252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -4335,7 +4337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4352,7 +4354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4403,7 +4405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4420,7 +4422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4437,7 +4439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4512,21 +4514,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF77653-89E3-438B-AC1B-86A8377290C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.640625" customWidth="1"/>
+    <col min="2" max="6" width="17.640625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -4687,7 +4689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -4727,7 +4729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -4747,7 +4749,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -4847,7 +4849,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -4967,7 +4969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -4994,23 +4996,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF696F16-9D1E-42D1-A85D-EB5B97917A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="60.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.640625" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.35546875" customWidth="1"/>
+    <col min="4" max="4" width="32.640625" customWidth="1"/>
+    <col min="5" max="5" width="18.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>152</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -5065,8 +5067,11 @@
       <c r="D4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -5094,7 +5099,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -5108,7 +5113,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5136,7 +5141,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -5147,7 +5152,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -5158,7 +5163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -5194,7 +5199,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5205,7 +5210,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -5216,7 +5221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>151</v>
       </c>
@@ -5227,7 +5232,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>146</v>
       </c>
@@ -5238,7 +5243,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>145</v>
       </c>
@@ -5246,7 +5251,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>144</v>
       </c>
@@ -5254,7 +5259,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>143</v>
       </c>
